--- a/ig/ch-epr-fhir/StructureDefinition-ch-pdqm-querypatientresourceresponsemessage.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-pdqm-querypatientresourceresponsemessage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-ballot</t>
+    <t>4.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T20:14:33+00:00</t>
+    <t>2024-05-16T21:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
